--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Reln</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H2">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I2">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J2">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>5.887857793861333</v>
+        <v>10.85210575706689</v>
       </c>
       <c r="R2">
-        <v>52.990720144752</v>
+        <v>97.66895181360199</v>
       </c>
       <c r="S2">
-        <v>0.003783838787244528</v>
+        <v>0.004052039908972341</v>
       </c>
       <c r="T2">
-        <v>0.003783838787244528</v>
+        <v>0.004052039908972343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H3">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I3">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J3">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>9.699740388756888</v>
+        <v>10.52265020181411</v>
       </c>
       <c r="R3">
-        <v>87.297663498812</v>
+        <v>94.703851816327</v>
       </c>
       <c r="S3">
-        <v>0.006233549653228092</v>
+        <v>0.003929025344978846</v>
       </c>
       <c r="T3">
-        <v>0.006233549653228093</v>
+        <v>0.003929025344978846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H4">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I4">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J4">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>8.585000856582223</v>
+        <v>10.71549100444333</v>
       </c>
       <c r="R4">
-        <v>77.26500770924001</v>
+        <v>96.43941903999</v>
       </c>
       <c r="S4">
-        <v>0.005517160972116433</v>
+        <v>0.0040010296772093</v>
       </c>
       <c r="T4">
-        <v>0.005517160972116433</v>
+        <v>0.0040010296772093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H5">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I5">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J5">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>3.891417125902223</v>
+        <v>4.275178532575889</v>
       </c>
       <c r="R5">
-        <v>35.02275413312001</v>
+        <v>38.476606793183</v>
       </c>
       <c r="S5">
-        <v>0.002500823826568668</v>
+        <v>0.001596297936987801</v>
       </c>
       <c r="T5">
-        <v>0.002500823826568668</v>
+        <v>0.001596297936987802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H6">
         <v>0.182541</v>
       </c>
       <c r="I6">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J6">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>6.020611315227999</v>
+        <v>10.22897866375133</v>
       </c>
       <c r="R6">
-        <v>54.18550183705199</v>
+        <v>92.060807973762</v>
       </c>
       <c r="S6">
-        <v>0.003869152995039119</v>
+        <v>0.003819372083298756</v>
       </c>
       <c r="T6">
-        <v>0.003869152995039119</v>
+        <v>0.003819372083298756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H7">
         <v>0.182541</v>
       </c>
       <c r="I7">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J7">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>9.918440421609665</v>
+        <v>9.918440421609668</v>
       </c>
       <c r="R7">
-        <v>89.26596379448699</v>
+        <v>89.26596379448701</v>
       </c>
       <c r="S7">
-        <v>0.006374097488459908</v>
+        <v>0.00370342100628306</v>
       </c>
       <c r="T7">
-        <v>0.006374097488459909</v>
+        <v>0.003703421006283059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H8">
         <v>0.182541</v>
       </c>
       <c r="I8">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J8">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>8.778566858776665</v>
+        <v>10.10020831991</v>
       </c>
       <c r="R8">
-        <v>79.00710172898999</v>
+        <v>90.90187487919</v>
       </c>
       <c r="S8">
-        <v>0.005641556392766507</v>
+        <v>0.003771290855192645</v>
       </c>
       <c r="T8">
-        <v>0.005641556392766508</v>
+        <v>0.003771290855192645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H9">
         <v>0.182541</v>
       </c>
       <c r="I9">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J9">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>3.979156902346667</v>
+        <v>4.029698103980334</v>
       </c>
       <c r="R9">
-        <v>35.81241212112</v>
+        <v>36.267282935823</v>
       </c>
       <c r="S9">
-        <v>0.002557209897856053</v>
+        <v>0.001504638629954871</v>
       </c>
       <c r="T9">
-        <v>0.002557209897856053</v>
+        <v>0.001504638629954871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H10">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I10">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J10">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>314.5531857613427</v>
+        <v>777.4272586995465</v>
       </c>
       <c r="R10">
-        <v>2830.978671852084</v>
+        <v>6996.84532829592</v>
       </c>
       <c r="S10">
-        <v>0.2021479775167159</v>
+        <v>0.2902815683050398</v>
       </c>
       <c r="T10">
-        <v>0.202147977516716</v>
+        <v>0.2902815683050399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H11">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I11">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J11">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>518.1993769486921</v>
+        <v>753.8255969652132</v>
       </c>
       <c r="R11">
-        <v>4663.794392538229</v>
+        <v>6784.43037268692</v>
       </c>
       <c r="S11">
-        <v>0.333021443566235</v>
+        <v>0.2814690044205324</v>
       </c>
       <c r="T11">
-        <v>0.3330214435662351</v>
+        <v>0.2814690044205324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H12">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I12">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J12">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>458.6454808771477</v>
+        <v>767.6403993555999</v>
       </c>
       <c r="R12">
-        <v>4127.80932789433</v>
+        <v>6908.7635942004</v>
       </c>
       <c r="S12">
-        <v>0.2947490616955349</v>
+        <v>0.2866272780195488</v>
       </c>
       <c r="T12">
-        <v>0.2947490616955349</v>
+        <v>0.2866272780195488</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.62452</v>
+      </c>
+      <c r="H13">
+        <v>13.87356</v>
+      </c>
+      <c r="I13">
+        <v>0.9727340463997778</v>
+      </c>
+      <c r="J13">
+        <v>0.9727340463997778</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>66.22673433333334</v>
+      </c>
+      <c r="N13">
+        <v>198.680203</v>
+      </c>
+      <c r="O13">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="P13">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="Q13">
+        <v>306.2668574591867</v>
+      </c>
+      <c r="R13">
+        <v>2756.40171713268</v>
+      </c>
+      <c r="S13">
+        <v>0.1143561956546568</v>
+      </c>
+      <c r="T13">
+        <v>0.1143561956546568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.179015666666666</v>
-      </c>
-      <c r="H13">
-        <v>9.537046999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.9635226099867207</v>
-      </c>
-      <c r="J13">
-        <v>0.9635226099867207</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>65.39610666666668</v>
-      </c>
-      <c r="N13">
-        <v>196.18832</v>
-      </c>
-      <c r="O13">
-        <v>0.1386621609326595</v>
-      </c>
-      <c r="P13">
-        <v>0.1386621609326595</v>
-      </c>
-      <c r="Q13">
-        <v>207.8952476323378</v>
-      </c>
-      <c r="R13">
-        <v>1871.05722869104</v>
-      </c>
-      <c r="S13">
-        <v>0.1336041272082347</v>
-      </c>
-      <c r="T13">
-        <v>0.1336041272082348</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.012677</v>
+      </c>
+      <c r="I14">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J14">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>168.1098273333333</v>
+      </c>
+      <c r="N14">
+        <v>504.329482</v>
+      </c>
+      <c r="O14">
+        <v>0.2984182258032519</v>
+      </c>
+      <c r="P14">
+        <v>0.298418225803252</v>
+      </c>
+      <c r="Q14">
+        <v>0.7103760937015555</v>
+      </c>
+      <c r="R14">
+        <v>6.393384843314</v>
+      </c>
+      <c r="S14">
+        <v>0.0002652455059410123</v>
+      </c>
+      <c r="T14">
+        <v>0.0002652455059410123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.012677</v>
+      </c>
+      <c r="I15">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J15">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.2893586437755394</v>
+      </c>
+      <c r="P15">
+        <v>0.2893586437755394</v>
+      </c>
+      <c r="Q15">
+        <v>0.6888100165154445</v>
+      </c>
+      <c r="R15">
+        <v>6.199290148639</v>
+      </c>
+      <c r="S15">
+        <v>0.0002571930037451879</v>
+      </c>
+      <c r="T15">
+        <v>0.0002571930037451879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.012677</v>
+      </c>
+      <c r="I16">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J16">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>165.99353</v>
+      </c>
+      <c r="N16">
+        <v>497.98059</v>
+      </c>
+      <c r="O16">
+        <v>0.294661504941043</v>
+      </c>
+      <c r="P16">
+        <v>0.294661504941043</v>
+      </c>
+      <c r="Q16">
+        <v>0.7014333266033334</v>
+      </c>
+      <c r="R16">
+        <v>6.31289993943</v>
+      </c>
+      <c r="S16">
+        <v>0.0002619063890921884</v>
+      </c>
+      <c r="T16">
+        <v>0.0002619063890921884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.012677</v>
+      </c>
+      <c r="I17">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J17">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>66.22673433333334</v>
+      </c>
+      <c r="N17">
+        <v>198.680203</v>
+      </c>
+      <c r="O17">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="P17">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="Q17">
+        <v>0.2798521037145556</v>
+      </c>
+      <c r="R17">
+        <v>2.518668933431</v>
+      </c>
+      <c r="S17">
+        <v>0.0001044932585662284</v>
+      </c>
+      <c r="T17">
+        <v>0.0001044932585662284</v>
       </c>
     </row>
   </sheetData>
